--- a/#file/List_FileName.xlsx
+++ b/#file/List_FileName.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>header.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,26 @@
   </si>
   <si>
     <t>추가삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momoaInsertData.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_input.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 정보 삽입 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin work sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 정보 디비 삽입($conn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +368,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -737,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +979,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H31"/>
+  <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1662,8 +1721,51 @@
         <v>62</v>
       </c>
     </row>
+    <row r="35" spans="2:8" ht="3.95" customHeight="1"/>
+    <row r="36" spans="2:8" ht="29.25" customHeight="1">
+      <c r="B36" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="72"/>
+    </row>
+    <row r="37" spans="2:8" ht="3.95" customHeight="1" thickBot="1"/>
+    <row r="38" spans="2:8">
+      <c r="B38" s="73">
+        <v>17</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B39" s="78">
+        <v>18</v>
+      </c>
+      <c r="C39" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="82" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B25:C25"/>

--- a/#file/List_FileName.xlsx
+++ b/#file/List_FileName.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>header.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,22 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명섭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mainPage.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,19 +160,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혜림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>notice.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>notice.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명섭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,18 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청현/혜림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혜림/청현/명섭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청현/명섭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그아웃/세션종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,6 +271,30 @@
   <si>
     <t>아이템 정보 디비 삽입($conn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김청현</t>
+  </si>
+  <si>
+    <t>서민지</t>
+  </si>
+  <si>
+    <t>조세빈</t>
+  </si>
+  <si>
+    <t>류혜림</t>
+  </si>
+  <si>
+    <t>김청현/류혜림</t>
+  </si>
+  <si>
+    <t>류혜림/김청현/동명섭</t>
+  </si>
+  <si>
+    <t>동명섭</t>
+  </si>
+  <si>
+    <t>김청현/동명섭</t>
   </si>
 </sst>
 </file>
@@ -763,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,9 +842,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -886,9 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,14 +920,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -979,39 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,9 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1320,17 +1303,16 @@
     <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="39.875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="3.95" customHeight="1"/>
     <row r="3" spans="2:8" s="13" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B3" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="67"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="2:8" ht="3.95" customHeight="1" thickBot="1">
@@ -1340,22 +1322,22 @@
     <row r="5" spans="2:8" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="H5" s="25" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="16.5" customHeight="1">
@@ -1365,20 +1347,20 @@
       <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>14</v>
+      <c r="F6" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>61</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -1388,12 +1370,12 @@
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="65"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -1403,12 +1385,12 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="65"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -1416,18 +1398,18 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="41" t="s">
-        <v>15</v>
+      <c r="E9" s="38"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -1440,15 +1422,15 @@
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="41" t="s">
-        <v>16</v>
+      <c r="E10" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="77"/>
+      <c r="G10" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -1456,18 +1438,18 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="41" t="s">
-        <v>59</v>
+      <c r="E11" s="38"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -1480,13 +1462,13 @@
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="41" t="s">
-        <v>59</v>
+      <c r="E12" s="38"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickBot="1">
@@ -1499,15 +1481,15 @@
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="42" t="s">
-        <v>39</v>
+      <c r="E13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -1515,7 +1497,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="67"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
     </row>
@@ -1524,97 +1506,97 @@
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="67"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:8" ht="17.25" thickBot="1">
       <c r="B16" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="67"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>9</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="45">
+        <v>10</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D18" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="45">
+        <v>11</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="43" t="s">
+      <c r="D19" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="69"/>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B20" s="46">
+        <v>12</v>
+      </c>
+      <c r="C20" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="47">
-        <v>10</v>
-      </c>
-      <c r="C18" s="28" t="s">
+      <c r="D20" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="47">
-        <v>11</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="58"/>
-    </row>
-    <row r="20" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B20" s="48">
-        <v>12</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="59"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="70"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="31"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:8" ht="3.95" customHeight="1">
@@ -1622,17 +1604,17 @@
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="31"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:8" s="13" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B25" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="61"/>
+      <c r="B25" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="71"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="32"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="17"/>
     </row>
     <row r="26" spans="2:8" ht="3.95" customHeight="1" thickBot="1"/>
@@ -1641,16 +1623,16 @@
         <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="33"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="26" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -1658,16 +1640,16 @@
         <v>14</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="34"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="27" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -1679,88 +1661,88 @@
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="34"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="27" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="5">
         <v>16</v>
       </c>
-      <c r="C30" s="54" t="s">
-        <v>44</v>
+      <c r="C30" s="52" t="s">
+        <v>38</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="34"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="17.25" thickBot="1">
       <c r="B31" s="6">
         <v>17</v>
       </c>
-      <c r="C31" s="56" t="s">
-        <v>45</v>
+      <c r="C31" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="35"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="3.95" customHeight="1"/>
     <row r="36" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B36" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="72"/>
+      <c r="B36" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="68"/>
     </row>
     <row r="37" spans="2:8" ht="3.95" customHeight="1" thickBot="1"/>
     <row r="38" spans="2:8">
-      <c r="B38" s="73">
+      <c r="B38" s="57">
         <v>17</v>
       </c>
-      <c r="C38" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="77" t="s">
-        <v>69</v>
+      <c r="C38" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="61" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B39" s="78">
+      <c r="B39" s="62">
         <v>18</v>
       </c>
-      <c r="C39" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="82" t="s">
+      <c r="C39" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="65" t="s">
         <v>67</v>
+      </c>
+      <c r="H39" s="66" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
